--- a/Documentacion/Presentacion del proyecto.xlsx
+++ b/Documentacion/Presentacion del proyecto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Como surgio la idea?</t>
   </si>
@@ -48,6 +48,39 @@
   </si>
   <si>
     <t>El resto del equipo acompaño</t>
+  </si>
+  <si>
+    <t>a. Material grafico del proyecto:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     . ¿cómo surgio la idea?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     . ¿para qué sirve?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     . ¿a quién se le ocurrio?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    . ¿cómo acompañó el resto del equipo?</t>
+  </si>
+  <si>
+    <t>b. Datos de Aprendices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     . Nombre, apellido y telefono de los integrantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     . ¿Tenían o no conocimientos previos? background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     . ¿A que se dedican?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     . ¿De dónde son?, viajan mucho para llegar a las clases?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     . Fotos o videos cortos de no mas de 1 min de ellos separados o juntos presentandose o trabajando</t>
   </si>
 </sst>
 </file>
@@ -365,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:A10"/>
+  <dimension ref="A3:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,6 +446,61 @@
         <v>7</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
